--- a/_Out/NFDataCfg/Excel_Ini/Equip.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/Equip.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cherish\Desktop\git\nf\develop\_Out\Server\NFDataCfg\Excel_Ini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="27518" windowHeight="17543"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="68">
   <si>
     <t>Id</t>
   </si>
@@ -240,17 +240,20 @@
   <si>
     <t>Upload</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Force</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -258,7 +261,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -271,7 +274,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -500,7 +503,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -794,35 +797,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.453125" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" customWidth="1"/>
-    <col min="4" max="4" width="9.36328125" customWidth="1"/>
-    <col min="5" max="5" width="7.1796875" customWidth="1"/>
-    <col min="6" max="6" width="11.6328125" customWidth="1"/>
-    <col min="7" max="7" width="12.6328125" customWidth="1"/>
-    <col min="8" max="8" width="26.36328125" customWidth="1"/>
-    <col min="9" max="9" width="18.1796875" customWidth="1"/>
-    <col min="10" max="10" width="20.1796875" customWidth="1"/>
-    <col min="11" max="11" width="8.81640625" customWidth="1"/>
-    <col min="12" max="12" width="12.6328125" customWidth="1"/>
+    <col min="1" max="1" width="11.46484375" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" customWidth="1"/>
+    <col min="3" max="3" width="16.46484375" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="7.19921875" customWidth="1"/>
+    <col min="6" max="6" width="11.59765625" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.19921875" customWidth="1"/>
+    <col min="10" max="10" width="20.19921875" customWidth="1"/>
+    <col min="11" max="11" width="8.796875" customWidth="1"/>
+    <col min="12" max="12" width="12.59765625" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="10.453125" customWidth="1"/>
-    <col min="15" max="15" width="15.1796875" customWidth="1"/>
-    <col min="16" max="16" width="47.81640625" customWidth="1"/>
+    <col min="14" max="14" width="10.46484375" customWidth="1"/>
+    <col min="15" max="15" width="15.19921875" customWidth="1"/>
+    <col min="16" max="16" width="47.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="1" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -881,7 +884,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="2" customFormat="1">
       <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
@@ -940,7 +943,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="2" customFormat="1">
       <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
@@ -999,7 +1002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="2" customFormat="1">
       <c r="A4" s="7" t="s">
         <v>23</v>
       </c>
@@ -1058,7 +1061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" s="2" customFormat="1">
       <c r="A5" s="7" t="s">
         <v>24</v>
       </c>
@@ -1117,7 +1120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" s="2" customFormat="1">
       <c r="A6" s="7" t="s">
         <v>25</v>
       </c>
@@ -1176,7 +1179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" s="3" customFormat="1" ht="13.5">
       <c r="A7" s="9" t="s">
         <v>26</v>
       </c>
@@ -1235,174 +1238,186 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" s="3" customFormat="1" ht="13.5">
       <c r="A8" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="3" customFormat="1" ht="13.5">
+      <c r="A9" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3" t="b">
+      <c r="B9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+    <row r="10" spans="1:19" s="4" customFormat="1">
+      <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I10" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K10" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="M10" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="N10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="O10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="P10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="Q10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="R10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="S9" s="11" t="s">
+      <c r="S10" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+    <row r="11" spans="1:19">
+      <c r="A11" s="12" t="s">
         <v>45</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="O10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="P10" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1420,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="O11" s="12" t="s">
         <v>48</v>
@@ -1443,13 +1458,13 @@
       <c r="R11">
         <v>0</v>
       </c>
-      <c r="S11" s="14" t="s">
+      <c r="S11" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19">
       <c r="A12" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1464,19 +1479,19 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="O12" s="12" t="s">
         <v>48</v>
@@ -1494,9 +1509,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="A13" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1514,16 +1529,16 @@
         <v>1</v>
       </c>
       <c r="I13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O13" s="12" t="s">
         <v>48</v>
@@ -1541,9 +1556,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="A14" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1558,19 +1573,19 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O14" s="12" t="s">
         <v>48</v>
@@ -1588,9 +1603,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="A15" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1608,16 +1623,16 @@
         <v>12</v>
       </c>
       <c r="I15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O15" s="12" t="s">
         <v>48</v>
@@ -1632,14 +1647,61 @@
         <v>0</v>
       </c>
       <c r="S15" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>12</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16" s="14" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:S8">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:S9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
